--- a/excel/Plantilla_HS.xlsx
+++ b/excel/Plantilla_HS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5016" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="659">
   <si>
     <t>SKU</t>
   </si>
@@ -2450,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L520" sqref="L520"/>
+    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C520" sqref="C520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,6 +3373,9 @@
       <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>128</v>
       </c>
@@ -4210,6 +4213,9 @@
       <c r="B32" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="C32" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D32" s="9" t="s">
         <v>129</v>
       </c>
@@ -4578,6 +4584,9 @@
       <c r="B39" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="C39" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D39" s="9" t="s">
         <v>85</v>
       </c>
@@ -4629,6 +4638,9 @@
       <c r="B40" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="C40" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D40" s="9" t="s">
         <v>86</v>
       </c>
@@ -4679,6 +4691,9 @@
       </c>
       <c r="B41" s="5" t="s">
         <v>87</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>134</v>
@@ -4897,6 +4912,9 @@
       <c r="B45" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="C45" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D45" s="5" t="s">
         <v>130</v>
       </c>
@@ -5054,6 +5072,9 @@
       <c r="B48" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="C48" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D48" s="5" t="s">
         <v>132</v>
       </c>
@@ -5217,6 +5238,9 @@
       <c r="B51" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="C51" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D51" s="5" t="s">
         <v>136</v>
       </c>
@@ -5674,6 +5698,9 @@
       <c r="B59" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="C59" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D59" s="5" t="s">
         <v>140</v>
       </c>
@@ -5891,6 +5918,9 @@
       <c r="B63" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="C63" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D63" s="5" t="s">
         <v>143</v>
       </c>
@@ -6288,6 +6318,9 @@
       <c r="B70" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="C70" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D70" s="9" t="s">
         <v>144</v>
       </c>
@@ -6338,6 +6371,9 @@
       </c>
       <c r="B71" s="5" t="s">
         <v>111</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>146</v>
@@ -6916,6 +6952,9 @@
       <c r="B81" s="9" t="s">
         <v>120</v>
       </c>
+      <c r="C81" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D81" s="9" t="s">
         <v>148</v>
       </c>
@@ -6966,6 +7005,9 @@
       </c>
       <c r="B82" s="5" t="s">
         <v>121</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>151</v>
@@ -7784,6 +7826,9 @@
       <c r="B96" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="C96" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D96" s="9" t="s">
         <v>151</v>
       </c>
@@ -7834,6 +7879,9 @@
       </c>
       <c r="B97" s="5" t="s">
         <v>171</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>292</v>
@@ -8112,6 +8160,9 @@
       <c r="B102" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="C102" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D102" s="5" t="s">
         <v>291</v>
       </c>
@@ -8329,6 +8380,9 @@
       <c r="B106" s="5" t="s">
         <v>178</v>
       </c>
+      <c r="C106" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D106" s="5" t="s">
         <v>293</v>
       </c>
@@ -8546,6 +8600,9 @@
       <c r="B110" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="C110" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D110" s="5" t="s">
         <v>294</v>
       </c>
@@ -9063,6 +9120,9 @@
       <c r="B119" s="5" t="s">
         <v>189</v>
       </c>
+      <c r="C119" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D119" s="5" t="s">
         <v>303</v>
       </c>
@@ -9400,6 +9460,9 @@
       <c r="B125" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="C125" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D125" s="9" t="s">
         <v>313</v>
       </c>
@@ -9450,6 +9513,9 @@
       </c>
       <c r="B126" s="5" t="s">
         <v>195</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>308</v>
@@ -9788,6 +9854,9 @@
       <c r="B132" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="C132" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D132" s="9" t="s">
         <v>200</v>
       </c>
@@ -9838,6 +9907,9 @@
       </c>
       <c r="B133" s="5" t="s">
         <v>201</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>303</v>
@@ -10056,6 +10128,9 @@
       <c r="B137" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="C137" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D137" s="5" t="s">
         <v>299</v>
       </c>
@@ -10453,6 +10528,9 @@
       <c r="B144" s="9" t="s">
         <v>210</v>
       </c>
+      <c r="C144" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D144" s="9" t="s">
         <v>309</v>
       </c>
@@ -10504,6 +10582,9 @@
       <c r="B145" s="9" t="s">
         <v>211</v>
       </c>
+      <c r="C145" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D145" s="9" t="s">
         <v>314</v>
       </c>
@@ -10555,6 +10636,9 @@
       <c r="B146" s="9" t="s">
         <v>212</v>
       </c>
+      <c r="C146" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D146" s="9" t="s">
         <v>314</v>
       </c>
@@ -10605,6 +10689,9 @@
       </c>
       <c r="B147" s="5" t="s">
         <v>213</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>311</v>
@@ -10823,6 +10910,9 @@
       <c r="B151" s="5" t="s">
         <v>216</v>
       </c>
+      <c r="C151" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D151" s="5" t="s">
         <v>322</v>
       </c>
@@ -11040,6 +11130,9 @@
       <c r="B155" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="C155" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D155" s="9" t="s">
         <v>312</v>
       </c>
@@ -11090,6 +11183,9 @@
       </c>
       <c r="B156" s="5" t="s">
         <v>220</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>325</v>
@@ -11728,6 +11824,9 @@
       <c r="B167" s="5" t="s">
         <v>230</v>
       </c>
+      <c r="C167" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D167" s="5" t="s">
         <v>333</v>
       </c>
@@ -11958,6 +12057,9 @@
       </c>
       <c r="B171" s="5" t="s">
         <v>233</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>334</v>
@@ -12776,6 +12878,9 @@
       <c r="B185" s="5" t="s">
         <v>246</v>
       </c>
+      <c r="C185" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D185" s="5" t="s">
         <v>337</v>
       </c>
@@ -13053,6 +13158,9 @@
       <c r="B190" s="5" t="s">
         <v>250</v>
       </c>
+      <c r="C190" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D190" s="5" t="s">
         <v>338</v>
       </c>
@@ -13870,6 +13978,9 @@
       <c r="B204" s="5" t="s">
         <v>263</v>
       </c>
+      <c r="C204" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D204" s="5" t="s">
         <v>347</v>
       </c>
@@ -15047,6 +15158,9 @@
       <c r="B224" s="5" t="s">
         <v>282</v>
       </c>
+      <c r="C224" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D224" s="5" t="s">
         <v>357</v>
       </c>
@@ -15324,6 +15438,9 @@
       <c r="B229" s="5" t="s">
         <v>286</v>
       </c>
+      <c r="C229" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D229" s="5" t="s">
         <v>359</v>
       </c>
@@ -15541,6 +15658,9 @@
       <c r="B233" s="5" t="s">
         <v>289</v>
       </c>
+      <c r="C233" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D233" s="5" t="s">
         <v>613</v>
       </c>
@@ -15755,6 +15875,9 @@
       <c r="B237" s="5" t="s">
         <v>369</v>
       </c>
+      <c r="C237" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D237" s="5" t="s">
         <v>619</v>
       </c>
@@ -16209,6 +16332,9 @@
       <c r="B245" s="9" t="s">
         <v>376</v>
       </c>
+      <c r="C245" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D245" s="9" t="s">
         <v>622</v>
       </c>
@@ -16260,6 +16386,9 @@
       <c r="B246" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="C246" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D246" s="5" t="s">
         <v>623</v>
       </c>
@@ -16594,6 +16723,9 @@
       <c r="B252" s="9" t="s">
         <v>382</v>
       </c>
+      <c r="C252" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D252" s="9" t="s">
         <v>626</v>
       </c>
@@ -16645,6 +16777,9 @@
       <c r="B253" s="5" t="s">
         <v>383</v>
       </c>
+      <c r="C253" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D253" s="5" t="s">
         <v>626</v>
       </c>
@@ -18239,6 +18374,9 @@
       <c r="B280" s="5" t="s">
         <v>409</v>
       </c>
+      <c r="C280" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D280" s="5" t="s">
         <v>631</v>
       </c>
@@ -18633,6 +18771,9 @@
       <c r="B287" s="5" t="s">
         <v>415</v>
       </c>
+      <c r="C287" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D287" s="5" t="s">
         <v>634</v>
       </c>
@@ -18967,6 +19108,9 @@
       <c r="B293" s="5" t="s">
         <v>420</v>
       </c>
+      <c r="C293" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D293" s="5" t="s">
         <v>634</v>
       </c>
@@ -19121,6 +19265,9 @@
       <c r="B296" s="5" t="s">
         <v>422</v>
       </c>
+      <c r="C296" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D296" s="5" t="s">
         <v>637</v>
       </c>
@@ -19695,6 +19842,9 @@
       <c r="B306" s="5" t="s">
         <v>431</v>
       </c>
+      <c r="C306" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D306" s="5" t="s">
         <v>636</v>
       </c>
@@ -20509,6 +20659,9 @@
       <c r="B320" s="5" t="s">
         <v>444</v>
       </c>
+      <c r="C320" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D320" s="5" t="s">
         <v>444</v>
       </c>
@@ -21503,6 +21656,9 @@
       <c r="B337" s="9" t="s">
         <v>460</v>
       </c>
+      <c r="C337" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D337" s="9" t="s">
         <v>460</v>
       </c>
@@ -21554,6 +21710,9 @@
       <c r="B338" s="9" t="s">
         <v>461</v>
       </c>
+      <c r="C338" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D338" s="9" t="s">
         <v>461</v>
       </c>
@@ -21605,6 +21764,9 @@
       <c r="B339" s="9" t="s">
         <v>462</v>
       </c>
+      <c r="C339" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D339" s="9" t="s">
         <v>462</v>
       </c>
@@ -21656,6 +21818,9 @@
       <c r="B340" s="5" t="s">
         <v>463</v>
       </c>
+      <c r="C340" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D340" s="5" t="s">
         <v>463</v>
       </c>
@@ -21810,6 +21975,9 @@
       <c r="B343" s="5" t="s">
         <v>465</v>
       </c>
+      <c r="C343" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D343" s="5" t="s">
         <v>465</v>
       </c>
@@ -21964,6 +22132,9 @@
       <c r="B346" s="5" t="s">
         <v>467</v>
       </c>
+      <c r="C346" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D346" s="5" t="s">
         <v>467</v>
       </c>
@@ -22298,6 +22469,9 @@
       <c r="B352" s="9" t="s">
         <v>472</v>
       </c>
+      <c r="C352" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D352" s="9" t="s">
         <v>472</v>
       </c>
@@ -22349,6 +22523,9 @@
       <c r="B353" s="9" t="s">
         <v>473</v>
       </c>
+      <c r="C353" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D353" s="9" t="s">
         <v>473</v>
       </c>
@@ -22400,6 +22577,9 @@
       <c r="B354" s="5" t="s">
         <v>474</v>
       </c>
+      <c r="C354" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D354" s="5" t="s">
         <v>474</v>
       </c>
@@ -22614,6 +22794,9 @@
       <c r="B358" s="5" t="s">
         <v>477</v>
       </c>
+      <c r="C358" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D358" s="5" t="s">
         <v>477</v>
       </c>
@@ -22828,6 +23011,9 @@
       <c r="B362" s="9" t="s">
         <v>480</v>
       </c>
+      <c r="C362" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D362" s="9" t="s">
         <v>480</v>
       </c>
@@ -22879,6 +23065,9 @@
       <c r="B363" s="5" t="s">
         <v>481</v>
       </c>
+      <c r="C363" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D363" s="5" t="s">
         <v>481</v>
       </c>
@@ -23333,6 +23522,9 @@
       <c r="B371" s="5" t="s">
         <v>488</v>
       </c>
+      <c r="C371" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D371" s="5" t="s">
         <v>488</v>
       </c>
@@ -23547,6 +23739,9 @@
       <c r="B375" s="9" t="s">
         <v>491</v>
       </c>
+      <c r="C375" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D375" s="9" t="s">
         <v>491</v>
       </c>
@@ -23598,6 +23793,9 @@
       <c r="B376" s="5" t="s">
         <v>492</v>
       </c>
+      <c r="C376" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D376" s="5" t="s">
         <v>492</v>
       </c>
@@ -23992,6 +24190,9 @@
       <c r="B383" s="5" t="s">
         <v>498</v>
       </c>
+      <c r="C383" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D383" s="5" t="s">
         <v>498</v>
       </c>
@@ -24266,6 +24467,9 @@
       <c r="B388" s="5" t="s">
         <v>502</v>
       </c>
+      <c r="C388" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D388" s="5" t="s">
         <v>502</v>
       </c>
@@ -24720,6 +24924,9 @@
       <c r="B396" s="5" t="s">
         <v>509</v>
       </c>
+      <c r="C396" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D396" s="5" t="s">
         <v>509</v>
       </c>
@@ -24874,6 +25081,9 @@
       <c r="B399" s="5" t="s">
         <v>511</v>
       </c>
+      <c r="C399" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D399" s="5" t="s">
         <v>511</v>
       </c>
@@ -25448,6 +25658,9 @@
       <c r="B409" s="5" t="s">
         <v>520</v>
       </c>
+      <c r="C409" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D409" s="5" t="s">
         <v>520</v>
       </c>
@@ -25722,6 +25935,9 @@
       <c r="B414" s="5" t="s">
         <v>524</v>
       </c>
+      <c r="C414" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D414" s="5" t="s">
         <v>524</v>
       </c>
@@ -26056,6 +26272,9 @@
       <c r="B420" s="5" t="s">
         <v>529</v>
       </c>
+      <c r="C420" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D420" s="5" t="s">
         <v>529</v>
       </c>
@@ -26390,6 +26609,9 @@
       <c r="B426" s="5" t="s">
         <v>534</v>
       </c>
+      <c r="C426" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D426" s="5" t="s">
         <v>534</v>
       </c>
@@ -26664,6 +26886,9 @@
       <c r="B431" s="5" t="s">
         <v>538</v>
       </c>
+      <c r="C431" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D431" s="5" t="s">
         <v>538</v>
       </c>
@@ -26821,6 +27046,9 @@
       <c r="B434" s="9" t="s">
         <v>540</v>
       </c>
+      <c r="C434" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D434" s="9" t="s">
         <v>540</v>
       </c>
@@ -26872,6 +27100,9 @@
       <c r="B435" s="5" t="s">
         <v>541</v>
       </c>
+      <c r="C435" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D435" s="5" t="s">
         <v>541</v>
       </c>
@@ -27089,6 +27320,9 @@
       <c r="B439" s="5" t="s">
         <v>543</v>
       </c>
+      <c r="C439" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D439" s="5" t="s">
         <v>543</v>
       </c>
@@ -27243,6 +27477,9 @@
       <c r="B442" s="5" t="s">
         <v>545</v>
       </c>
+      <c r="C442" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D442" s="5" t="s">
         <v>545</v>
       </c>
@@ -27397,6 +27634,9 @@
       <c r="B445" s="5" t="s">
         <v>547</v>
       </c>
+      <c r="C445" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D445" s="5" t="s">
         <v>547</v>
       </c>
@@ -27671,6 +27911,9 @@
       <c r="B450" s="9" t="s">
         <v>551</v>
       </c>
+      <c r="C450" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D450" s="9" t="s">
         <v>551</v>
       </c>
@@ -27722,6 +27965,9 @@
       <c r="B451" s="5" t="s">
         <v>552</v>
       </c>
+      <c r="C451" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D451" s="5" t="s">
         <v>552</v>
       </c>
@@ -27936,6 +28182,9 @@
       <c r="B455" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="C455" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D455" s="5" t="s">
         <v>555</v>
       </c>
@@ -28210,6 +28459,9 @@
       <c r="B460" s="5" t="s">
         <v>559</v>
       </c>
+      <c r="C460" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D460" s="5" t="s">
         <v>559</v>
       </c>
@@ -28364,6 +28616,9 @@
       <c r="B463" s="5" t="s">
         <v>561</v>
       </c>
+      <c r="C463" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D463" s="5" t="s">
         <v>561</v>
       </c>
@@ -28578,6 +28833,9 @@
       <c r="B467" s="5" t="s">
         <v>564</v>
       </c>
+      <c r="C467" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D467" s="5" t="s">
         <v>564</v>
       </c>
@@ -28792,6 +29050,9 @@
       <c r="B471" s="9" t="s">
         <v>564</v>
       </c>
+      <c r="C471" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D471" s="9" t="s">
         <v>564</v>
       </c>
@@ -28843,6 +29104,9 @@
       <c r="B472" s="5" t="s">
         <v>567</v>
       </c>
+      <c r="C472" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D472" s="5" t="s">
         <v>567</v>
       </c>
@@ -29117,6 +29381,9 @@
       <c r="B477" s="5" t="s">
         <v>571</v>
       </c>
+      <c r="C477" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D477" s="5" t="s">
         <v>571</v>
       </c>
@@ -29391,6 +29658,9 @@
       <c r="B482" s="9" t="s">
         <v>575</v>
       </c>
+      <c r="C482" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D482" s="9" t="s">
         <v>575</v>
       </c>
@@ -29442,6 +29712,9 @@
       <c r="B483" s="5" t="s">
         <v>576</v>
       </c>
+      <c r="C483" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D483" s="5" t="s">
         <v>576</v>
       </c>
@@ -30136,6 +30409,9 @@
       <c r="B495" s="5" t="s">
         <v>587</v>
       </c>
+      <c r="C495" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D495" s="5" t="s">
         <v>587</v>
       </c>
@@ -30950,6 +31226,9 @@
       <c r="B509" s="5" t="s">
         <v>600</v>
       </c>
+      <c r="C509" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D509" s="5" t="s">
         <v>600</v>
       </c>
@@ -31164,6 +31443,9 @@
       <c r="B513" s="5" t="s">
         <v>603</v>
       </c>
+      <c r="C513" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D513" s="5" t="s">
         <v>603</v>
       </c>
@@ -31318,6 +31600,9 @@
       <c r="B516" s="5" t="s">
         <v>605</v>
       </c>
+      <c r="C516" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D516" s="5" t="s">
         <v>605</v>
       </c>
@@ -31531,6 +31816,9 @@
       </c>
       <c r="B520" s="9" t="s">
         <v>608</v>
+      </c>
+      <c r="C520" s="9" t="s">
+        <v>364</v>
       </c>
       <c r="D520" s="9" t="s">
         <v>608</v>

--- a/excel/Plantilla_HS.xlsx
+++ b/excel/Plantilla_HS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2022,7 +2022,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2051,6 +2051,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2096,7 +2102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2133,12 +2139,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2161,19 +2181,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2216,7 +2223,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:R520" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:R520" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:R520"/>
   <tableColumns count="18">
     <tableColumn id="1" name="SKU PADRE"/>
@@ -2293,7 +2300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2328,7 +2335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2539,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,7 +2955,7 @@
       <c r="F8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="28" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="10" t="s">
